--- a/storage/app/Colombo_re_upload.xlsx
+++ b/storage/app/Colombo_re_upload.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -92,7 +92,25 @@
     <t>3/21/2025</t>
   </si>
   <si>
-    <t>Colombo1</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>fsf</t>
+  </si>
+  <si>
+    <t>vfxgvx</t>
   </si>
 </sst>
 </file>
@@ -513,19 +531,35 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>

--- a/storage/app/Colombo_re_upload.xlsx
+++ b/storage/app/Colombo_re_upload.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>vfxgvx</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>jjj</t>
   </si>
 </sst>
 </file>
@@ -601,7 +607,9 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4"/>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -681,7 +689,9 @@
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7"/>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>

--- a/storage/app/Colombo_re_upload.xlsx
+++ b/storage/app/Colombo_re_upload.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>vfxgvx</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>jjj</t>
   </si>
 </sst>
 </file>
@@ -581,9 +575,15 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -608,10 +608,14 @@
     <row r="4" spans="1:24">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -635,9 +639,15 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -661,8 +671,12 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
@@ -687,11 +701,13 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7" t="s">
-        <v>33</v>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -715,8 +731,12 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>

--- a/storage/app/Colombo_re_upload.xlsx
+++ b/storage/app/Colombo_re_upload.xlsx
@@ -677,7 +677,9 @@
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6"/>
+      <c r="D6">
+        <v>8</v>
+      </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
@@ -707,7 +709,9 @@
       <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7"/>
+      <c r="D7">
+        <v>9</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
